--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/124.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/124.xlsx
@@ -479,13 +479,13 @@
         <v>-28.76964287468672</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.526224107535814</v>
+        <v>-9.130286684996333</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.039891418356626</v>
+        <v>-3.01162513652134</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.262221362973613</v>
+        <v>-5.76022319511331</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-28.21200358771649</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.812160001599111</v>
+        <v>-9.408144628206287</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.022609578605548</v>
+        <v>-3.044892678042165</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.227435114323147</v>
+        <v>-5.712095889867125</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-27.33508875112121</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.63591460409767</v>
+        <v>-10.23117915404855</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.850917119139152</v>
+        <v>-2.893663487917387</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.113545171902972</v>
+        <v>-5.587679735962203</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-26.20210876565355</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.36749939459049</v>
+        <v>-10.98067421482885</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.797971846447212</v>
+        <v>-2.81821254664052</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.347753377438609</v>
+        <v>-5.812160360486438</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-24.8453791715021</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.20463433059329</v>
+        <v>-11.78784086962694</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.618581112909881</v>
+        <v>-2.663945942256462</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.871533953873666</v>
+        <v>-5.355291360521565</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-23.32272862304395</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.89317162934251</v>
+        <v>-12.46899410957342</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.563279225706431</v>
+        <v>-2.62320269581301</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.968482456416647</v>
+        <v>-5.466654488493287</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-21.71330993533046</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.44501219412126</v>
+        <v>-12.99339320759592</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.457873095527694</v>
+        <v>-2.503931816924886</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.473436301365301</v>
+        <v>-4.998290446633378</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-20.11258125840983</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.44789568410032</v>
+        <v>-13.97831405807613</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.255060232206515</v>
+        <v>-2.27155653378709</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.295367890414984</v>
+        <v>-4.862051943262377</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-18.59090848892262</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.19927603648982</v>
+        <v>-14.72901361071786</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.230839471949322</v>
+        <v>-2.254235417127486</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.920482890845</v>
+        <v>-4.479102085141889</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-17.22798332054589</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.88912256552321</v>
+        <v>-15.41124041949736</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.027227978154798</v>
+        <v>-2.068782947374437</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.687950500073104</v>
+        <v>-4.257436305728626</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.0726800189284</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.54015041663088</v>
+        <v>-16.0649260080819</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.109094147824111</v>
+        <v>-2.101893381261162</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.157699142680356</v>
+        <v>-3.732107654204367</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.12489060225136</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.5218112837035</v>
+        <v>-17.0440993376146</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.903950854597106</v>
+        <v>-1.91270960519822</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.502521031571859</v>
+        <v>-3.099932719188782</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.37618782897455</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.1157436021184</v>
+        <v>-17.65408281931346</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.639957660096541</v>
+        <v>-1.645927750192368</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.207996586844389</v>
+        <v>-2.768658180384587</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.79489764460754</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.03329146217509</v>
+        <v>-18.55356330144856</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.496610036282482</v>
+        <v>-1.497447943664353</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.615098560353982</v>
+        <v>-2.184950950489072</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.32705981325316</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.94641412387127</v>
+        <v>-19.45563605954633</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.330887666911914</v>
+        <v>-1.336713741676482</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.207181680714323</v>
+        <v>-1.793386357098729</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.93856434552316</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.74414122832049</v>
+        <v>-20.25103273408972</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.1369121080089</v>
+        <v>-1.117993730402606</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.70510495903697</v>
+        <v>-1.280194270308751</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.60323150548317</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.70632074876462</v>
+        <v>-21.2182789757336</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.040893158967681</v>
+        <v>-1.030314578271567</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.341047293917093</v>
+        <v>-0.9213604340227224</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.29472486453152</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.54844385215012</v>
+        <v>-22.05820257224169</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9323579684097723</v>
+        <v>-0.8989333192548457</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9814410117634034</v>
+        <v>-0.5447341581747887</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.0061917742043</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.22467438622812</v>
+        <v>-22.71023853066817</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7050886833802494</v>
+        <v>-0.6545131175026617</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6440392752292808</v>
+        <v>-0.1990580862446952</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.73563301721363</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.84071960414269</v>
+        <v>-23.33106243911998</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4245075411792181</v>
+        <v>-0.3637068867822423</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2893556989440799</v>
+        <v>0.1419702181765854</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.47823085197021</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.5041196814358</v>
+        <v>-23.97881721451722</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2502228057501607</v>
+        <v>-0.1531564724816036</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1442667988520716</v>
+        <v>0.2089766241205394</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.23966088156343</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.93907216644362</v>
+        <v>-24.44272987341094</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1802575393639766</v>
+        <v>-0.06659016609211087</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06475181601608505</v>
+        <v>0.4474136434740546</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.03113289757582</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.36482076255371</v>
+        <v>-24.84068351058805</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2110768202533997</v>
+        <v>-0.09603475518315278</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07946756441018515</v>
+        <v>0.4231012370969693</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.85990010634014</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.62353775900906</v>
+        <v>-25.10929828799174</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09146011381320623</v>
+        <v>0.2077721322591006</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08041021021478943</v>
+        <v>0.4102707803120777</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.73205529216377</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.62662754247971</v>
+        <v>-25.10682384275465</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06922938358795537</v>
+        <v>0.1999429351597484</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.08154157593736203</v>
+        <v>0.2507017932771204</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.652601616337</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.62555397364669</v>
+        <v>-25.08206629808095</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.12847748162495</v>
+        <v>0.005653160988533582</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.06220424464013263</v>
+        <v>0.25464257643248</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.62135591478979</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.68765076602499</v>
+        <v>-25.16927412730969</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05237958983065392</v>
+        <v>0.1590556733850379</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3553801821749045</v>
+        <v>-0.04180643681272342</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.6354810152587</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.76528812187643</v>
+        <v>-25.22538773728933</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.003576912514883296</v>
+        <v>0.1128398443537449</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.4266546788452612</v>
+        <v>-0.1282549124766406</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.6919625695334</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.52099884315266</v>
+        <v>-24.99705797572962</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1083153352486918</v>
+        <v>-0.008434156869163668</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5835397437976647</v>
+        <v>-0.3089679686009856</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.78376429108769</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.08283874394861</v>
+        <v>-24.54593649671227</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1170217166384397</v>
+        <v>-0.0100576024215377</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.097059138158686</v>
+        <v>-0.8012123708442023</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.89744381265661</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.14075909172041</v>
+        <v>-24.59745470839446</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.04604834293344266</v>
+        <v>0.05375428162903516</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.238691670300479</v>
+        <v>-0.9197631730760318</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.0196807627598</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.73189956627614</v>
+        <v>-24.20177913191182</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.09781530836962754</v>
+        <v>-0.006732157499739279</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.734497178916645</v>
+        <v>-1.408341730523565</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.13680950731337</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.11123276545844</v>
+        <v>-23.59911424750148</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1658429139352362</v>
+        <v>-0.1144556252814614</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.780280961954161</v>
+        <v>-1.476120582335181</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.23249991027024</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.75980917258083</v>
+        <v>-23.25559840554027</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3648459171294724</v>
+        <v>-0.3107223371817768</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.899722040779228</v>
+        <v>-1.558850843992048</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.29550946389586</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.983474890975</v>
+        <v>-22.50633900621113</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4703044165195759</v>
+        <v>-0.4218498037023477</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.077175113495983</v>
+        <v>-1.751019665102903</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.32158977240094</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.1931580299342</v>
+        <v>-21.70849407103634</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.413758760546161</v>
+        <v>-0.3603552572547604</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.229111287974214</v>
+        <v>-1.885673999830056</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.30755547924723</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.80800866493631</v>
+        <v>-21.31990143039107</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4737084152584247</v>
+        <v>-0.4236565414945059</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.496861973390354</v>
+        <v>-2.145084888336016</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.25676946385503</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.15810675187302</v>
+        <v>-20.67096834773808</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3938584602267374</v>
+        <v>-0.3108794448158776</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.672639231343368</v>
+        <v>-2.30576672111252</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.17634134806701</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.77896675387948</v>
+        <v>-20.31899487814112</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6074070118781313</v>
+        <v>-0.5586774607012268</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.875648479207173</v>
+        <v>-2.526817162292223</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-11.06854094290599</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.17713977685101</v>
+        <v>-19.74742421297988</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3791950810440042</v>
+        <v>-0.3019897711863456</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.772847717293939</v>
+        <v>-2.396169072234639</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.94001377424387</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.65643270822989</v>
+        <v>-19.20618841350293</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1370922168948057</v>
+        <v>-0.06060698369344205</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.848678335353217</v>
+        <v>-2.431243351547623</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.80457444974504</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.74670095296971</v>
+        <v>-18.30576528556321</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1217742225699862</v>
+        <v>-0.05588066236757894</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.809401426828039</v>
+        <v>-2.360139054814208</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.6697987115078</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.41965522798339</v>
+        <v>-17.98403503553064</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.07507397833354935</v>
+        <v>-0.01236184772168149</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.028304730341699</v>
+        <v>-2.556287935988949</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.54508775552731</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.86712077115402</v>
+        <v>-17.45018329485642</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.09971369228167781</v>
+        <v>-0.03786565365736387</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.088948277104574</v>
+        <v>-2.602045534420781</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.44301330793006</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.41669318418728</v>
+        <v>-17.0303262350251</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.03118857920808358</v>
+        <v>0.01162325108436067</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.937679810071271</v>
+        <v>-2.501260987145174</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.36662794426874</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.73975566575583</v>
+        <v>-16.36535508139099</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0713295797208157</v>
+        <v>0.00103157808540428</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.300310414181399</v>
+        <v>-2.837562970240592</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.32093084756532</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.08235186316424</v>
+        <v>-15.70513643368843</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.03938436078700409</v>
+        <v>0.006176853102202624</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.185124333779894</v>
+        <v>-2.752423724860847</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.31472104304555</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.47287898127621</v>
+        <v>-15.13525467559378</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05858534137763208</v>
+        <v>0.1220437332514783</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.455846971941105</v>
+        <v>-2.981447378471161</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.34731501262687</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.76980922637268</v>
+        <v>-14.43530088876658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1521167528789231</v>
+        <v>0.244221103370466</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.411450973004812</v>
+        <v>-2.930596874233897</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.41946134375558</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.95448606690419</v>
+        <v>-13.62611801933086</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1773848973634544</v>
+        <v>0.2564231296189547</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.555387750446748</v>
+        <v>-3.036291035075152</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.5352767370516</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.36594777726008</v>
+        <v>-13.03140016274545</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2454255952319048</v>
+        <v>0.3290330411791675</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.502822154537218</v>
+        <v>-3.020698102390656</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.6884298549079</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.71134572747662</v>
+        <v>-12.39274453782321</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3096957098819381</v>
+        <v>0.387123588887906</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.549417660350921</v>
+        <v>-3.055641458675223</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.87424740565073</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.33028116096534</v>
+        <v>-12.01440317030301</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1894298159778424</v>
+        <v>0.278968075112407</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.722026581016238</v>
+        <v>-3.196331345012411</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.09077211113357</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.78099359524072</v>
+        <v>-11.50887008067544</v>
       </c>
       <c r="F55" t="n">
-        <v>0.005875730136842925</v>
+        <v>0.05825803380658892</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.16038306476291</v>
+        <v>-3.663582541130773</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.32579195965179</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.35453801477718</v>
+        <v>-11.08543882216834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01754097196882085</v>
+        <v>0.1091739995580616</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.264545426171683</v>
+        <v>-3.751942493009582</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.56952464463719</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.58392506951318</v>
+        <v>-10.32141130523373</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.03419980886168057</v>
+        <v>0.05224866680223666</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.666138723538788</v>
+        <v>-4.13133124475712</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.81814013710929</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.32035082870355</v>
+        <v>-10.03738688738532</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2028548540687958</v>
+        <v>-0.1250080213718926</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.688343269158356</v>
+        <v>-4.156114974036507</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.0603722719463</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.722032588836669</v>
+        <v>-9.460199624304989</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1450654293254169</v>
+        <v>-0.05698041580628393</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.988890173193019</v>
+        <v>-4.443975436617539</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.28899577177063</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.381161392049489</v>
+        <v>-9.104861432877701</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2535220660662756</v>
+        <v>-0.1721795885106316</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.877330660678671</v>
+        <v>-4.349527563917326</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.50210952877978</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.827068951181959</v>
+        <v>-8.564764663747976</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2794448256928933</v>
+        <v>-0.1973822714809543</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.252660798545274</v>
+        <v>-4.739259234909828</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.6906032603443</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.348885682190755</v>
+        <v>-8.075060168256055</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2351404728764923</v>
+        <v>-0.1567044865517114</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.272037406751028</v>
+        <v>-4.729544746201268</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.84965303648587</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.901089648095199</v>
+        <v>-7.619945536871973</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2525270510503045</v>
+        <v>-0.1767880791109192</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.254205690280598</v>
+        <v>-4.718363919574434</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.9787070733213</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.544560057109314</v>
+        <v>-7.259998854844398</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4077493935418087</v>
+        <v>-0.3380983424238261</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.440561528929726</v>
+        <v>-4.924934273811187</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.07032191582087</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.19318883344307</v>
+        <v>-6.899528480703155</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3403109416040778</v>
+        <v>-0.277166764998433</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.699121417750975</v>
+        <v>-5.194282220174018</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.12191325722198</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.943021110743368</v>
+        <v>-6.65207086469169</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4569633599238571</v>
+        <v>-0.3957699364416294</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.660053986071264</v>
+        <v>-5.169144998717903</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.13491849792958</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.776604849322188</v>
+        <v>-6.487317325731409</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5504424022137812</v>
+        <v>-0.470540077970727</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.751660829054821</v>
+        <v>-5.272587283470381</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.10554667843518</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.49915276750033</v>
+        <v>-6.21122684340509</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4965544837172366</v>
+        <v>-0.4217581575824557</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.724939438954858</v>
+        <v>-5.255109059176677</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.03512607203483</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.379214181167277</v>
+        <v>-6.081272645398117</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7871643298950302</v>
+        <v>-0.6979141014229836</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.760759979529821</v>
+        <v>-5.31861982026189</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.92929949535607</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.187307206113257</v>
+        <v>-5.876823244221723</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7013966539788827</v>
+        <v>-0.6315623106211159</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.598061932115691</v>
+        <v>-5.16502092332276</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.78921924533215</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.097402362499124</v>
+        <v>-5.769073591834317</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7702752592292036</v>
+        <v>-0.7067252212354652</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.513367825032566</v>
+        <v>-5.109064420977223</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.61920155563223</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.103149883446641</v>
+        <v>-5.766219469814821</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8964850586234429</v>
+        <v>-0.8237704086404963</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.341086211938292</v>
+        <v>-4.970914441391329</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.42665318397255</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.158648155192718</v>
+        <v>-5.813836175250178</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9480818241226853</v>
+        <v>-0.8637543015191277</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.163567677707328</v>
+        <v>-4.783170818640977</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.21428483005721</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.376425520661989</v>
+        <v>-6.041485137062112</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8274231611333379</v>
+        <v>-0.7536480346202115</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.021516191874601</v>
+        <v>-4.651095667573645</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.98764875322455</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.555083085240184</v>
+        <v>-6.230839113061996</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.166186497163</v>
+        <v>-1.081976805285018</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.852926608181694</v>
+        <v>-4.484600852335414</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.75574985780674</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.02957432483002</v>
+        <v>-6.723869053475716</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.098001783963291</v>
+        <v>-1.007023371516136</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.638513964542746</v>
+        <v>-4.294422061256501</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.52507740462636</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.46905674662108</v>
+        <v>-7.17953356157915</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.161303068203036</v>
+        <v>-1.066108934240846</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.567933359923001</v>
+        <v>-4.224613902504418</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.30353143040102</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.069155539674437</v>
+        <v>-7.772117372801355</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.219576908151559</v>
+        <v>-1.131439525421059</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.199201742688627</v>
+        <v>-3.843248213027779</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.1023585089059</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.481667817611541</v>
+        <v>-8.189081033704648</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.223975921906379</v>
+        <v>-1.112769901568758</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.053065458369281</v>
+        <v>-3.675863121196312</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.92942727698228</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.934294911455694</v>
+        <v>-8.653595938529088</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.354637104266805</v>
+        <v>-1.283611361350441</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.695658683093002</v>
+        <v>-3.317186392544384</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.78966524318463</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.82929782601893</v>
+        <v>-9.56510824697574</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.327666960412849</v>
+        <v>-1.227537028279328</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.696562051989081</v>
+        <v>-3.310378395066687</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.68856064297662</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.59250052787451</v>
+        <v>-10.35229604763736</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.409860437653206</v>
+        <v>-1.313291611892634</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.496812787532866</v>
+        <v>-3.120003219445148</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.62935200995872</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.38965157099869</v>
+        <v>-11.17057806754808</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.541634465755178</v>
+        <v>-1.440417872485794</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.16044534292324</v>
+        <v>-2.76692999640948</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.61153881611272</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.5742562244209</v>
+        <v>-12.36599696311757</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.610460701794132</v>
+        <v>-1.509545231490108</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.016194350213102</v>
+        <v>-2.634710830010888</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.63668057417553</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.45985886554378</v>
+        <v>-13.25788390960447</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.679941552975172</v>
+        <v>-1.590285463115032</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.686255226298763</v>
+        <v>-2.305740536506837</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.70629594786388</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.59318096873495</v>
+        <v>-14.41169546674295</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.867829191056783</v>
+        <v>-1.78732462088301</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.429868659749242</v>
+        <v>-2.050794123269905</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.81578207261788</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.65585700579217</v>
+        <v>-15.4915747897342</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.900468302041206</v>
+        <v>-1.831196927705634</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.005128170957965</v>
+        <v>-1.630216986782297</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.96028713510043</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.05291045742708</v>
+        <v>-16.89285705518698</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.860562962979625</v>
+        <v>-1.809070935903117</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.721129937715243</v>
+        <v>-1.326946883756554</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.13278967348995</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.68849257453539</v>
+        <v>-18.5467029347595</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.08018634314958</v>
+        <v>-2.039927511911273</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.541359527395502</v>
+        <v>-1.138640291984008</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.31593319695787</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.27072355756367</v>
+        <v>-20.13944703696968</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.299416954234283</v>
+        <v>-2.261292168359177</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.258015909294867</v>
+        <v>-0.8536470437253152</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.4895934513229</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99628907210317</v>
+        <v>-21.91530008672425</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.470415521650067</v>
+        <v>-2.454874958176938</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.398967641688889</v>
+        <v>-0.9982515286121796</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.63313594391556</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.65656327237097</v>
+        <v>-23.60154941583004</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.573425760408768</v>
+        <v>-2.548772954157798</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.198040069976919</v>
+        <v>-0.8056768461132309</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.71890228208997</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75989409310564</v>
+        <v>-25.69699867025398</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.699530821380273</v>
+        <v>-2.696100638035742</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.172758833189546</v>
+        <v>-0.7891412676241308</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.72602200227976</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.98053194730216</v>
+        <v>-27.93515402565274</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.552635183496107</v>
+        <v>-2.561799795485315</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.277431794409146</v>
+        <v>-0.9128897140841257</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.6469421839327</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.24941493747045</v>
+        <v>-30.21330636623297</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.001714263270153</v>
+        <v>-3.031931298228857</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.628554264321398</v>
+        <v>-1.267128152072708</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-11.48006246471038</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.47387574409676</v>
+        <v>-32.42119231746165</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.030072191225332</v>
+        <v>-3.084117217355977</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.882165262668473</v>
+        <v>-1.516065198305287</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.23702129330094</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.70790702410036</v>
+        <v>-34.64730275424602</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.324164589959024</v>
+        <v>-3.408060066568805</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.070196916081343</v>
+        <v>-1.715330047556358</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.94642489086595</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.21565907961595</v>
+        <v>-37.16152240736541</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.572852882437611</v>
+        <v>-3.662312587755125</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.508068984622871</v>
+        <v>-2.139834874896484</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.63021944944114</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.6912433470494</v>
+        <v>-39.66872458616163</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.503476769679304</v>
+        <v>-3.583064878654157</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.981997255190513</v>
+        <v>-2.605920856061932</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.32547150934891</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.25935091866533</v>
+        <v>-42.23520871222519</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.681518996023937</v>
+        <v>-3.763804119384186</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.283185682064422</v>
+        <v>-2.928475921173537</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.05736510556176</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.5534234995011</v>
+        <v>-44.52179249583549</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.892959686917813</v>
+        <v>-3.984618899112737</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.821724467155982</v>
+        <v>-3.505466799711247</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.866504163979688</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87069564097241</v>
+        <v>-46.84212823617176</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.02551925319029</v>
+        <v>-4.13140979857417</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.124745816427732</v>
+        <v>-3.80107790557458</v>
       </c>
     </row>
   </sheetData>
